--- a/DSP_H2_2025/Tháng 9/NewEleven_20250929_20250929_DSP Product.xlsx
+++ b/DSP_H2_2025/Tháng 9/NewEleven_20250929_20250929_DSP Product.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>Creative Asset</t>
   </si>
@@ -152,13 +152,13 @@
     <t>B0DM61B4F2-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B089QFYLFB-Birthday-Tumblers</t>
+    <t>B08R8R2LQF-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0DH86X93V-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B08R8R2LQF-Birthday-Tumblers</t>
+    <t>B089QFYLFB-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0DH88L44J-Birthday-Wineglass</t>
@@ -194,19 +194,19 @@
     <t>B0DGGDN9WS-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B08R8SW1NM-Birthday-Tumblers</t>
-  </si>
-  <si>
     <t>B0CDLQGPKC-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0CYPWBV21-Birthday-Cf glass</t>
   </si>
   <si>
-    <t>B0D1GH6WJ6-Birthday-Tumblers</t>
+    <t>B08R8SW1NM-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0978WGWY4-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0D1GH6WJ6-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0D79751XN-Birthday-Tumblers</t>
@@ -233,16 +233,16 @@
     <t>B0F2T4JDF7-Moms-Cards</t>
   </si>
   <si>
-    <t>B0CRVTN11L-Moms-Cf glass</t>
+    <t>B097B9H21P-Moms - Tumblers</t>
   </si>
   <si>
     <t>B0CG8NHNWF-Moms - Tumblers</t>
   </si>
   <si>
-    <t>B097B9H21P-Moms - Tumblers</t>
+    <t>B0F18PVLJ1-Retirement-Tumbler</t>
   </si>
   <si>
-    <t>B0F18PVLJ1-Retirement-Tumbler</t>
+    <t>B0CRVTN11L-Moms-Cf glass</t>
   </si>
   <si>
     <t>B0F7LJYVN5-Dads-Card</t>
@@ -266,13 +266,10 @@
     <t>B08ZRWW1W4-Retirement - tumblers</t>
   </si>
   <si>
-    <t>B0DCJM56W3-Moms-Cf glass</t>
-  </si>
-  <si>
     <t>B0B9SF2R4R-Moms-Coffee Glass</t>
   </si>
   <si>
-    <t>B0D1K731RT-Moms-Cf glass</t>
+    <t>B0DCJM56W3-Moms-Cf glass</t>
   </si>
   <si>
     <t>B0BHWDNYVL-Moms - Cf glass</t>
@@ -281,31 +278,31 @@
     <t>B0DXVPDSJK-Moms-REC</t>
   </si>
   <si>
+    <t>B0D1K731RT-Moms-Cf glass</t>
+  </si>
+  <si>
     <t>B0C9BZRC4K-Moms - Cf glass</t>
   </si>
   <si>
     <t>B0CJX4XSXB-Moms - Tumblers</t>
   </si>
   <si>
-    <t>B08CDFWN1Q-Dads,Men-Apron</t>
+    <t>B0F59S8H6T-Dads-Card</t>
+  </si>
+  <si>
+    <t>B09TT1GGMM-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0CN93LZ5M-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0CXXJ751C-Retirement-cfglass</t>
+    <t>B0CY4G9VSR-Dads-Hats</t>
   </si>
   <si>
-    <t>B0DVSKBSWN-Dads-BIble Jar</t>
+    <t>B0CM5T2F1V-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0CT8NQBN5-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0CLYRNFBT-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0CG8N67SJ-Dads - tumblers</t>
+    <t>B0978WGWY4-Birthday-Wineglass</t>
   </si>
   <si>
     <t>B0CKYM9HQW-Birthday-Cf glass</t>
@@ -314,25 +311,25 @@
     <t>B097B9SY89-Dads - tumblers</t>
   </si>
   <si>
+    <t>B0CXXM1YD1-Birthday-Tumblers</t>
+  </si>
+  <si>
     <t>B0CM5SQT4T-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0CY4G9VSR-Dads-Hats</t>
+    <t>B0DJYD117Z-Birthday Ornaments</t>
   </si>
   <si>
     <t>B0CN92WPN9-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B09TT1GGMM-Birthday-Tumblers</t>
-  </si>
-  <si>
     <t>B0DQ59YSW3-Dads,Men-Tumblers</t>
   </si>
   <si>
-    <t>B0CM5T2F1V-Birthday-Wineglass</t>
+    <t>B0CM5QBW1Z-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0CXXM1YD1-Birthday-Tumblers</t>
+    <t>B0CXXJ751C-Retirement-cfglass</t>
   </si>
   <si>
     <t>B0DH886R83-Birthday-Tumblers</t>
@@ -341,28 +338,31 @@
     <t>B0CN93CWYD-Birthday-Tumblers</t>
   </si>
   <si>
+    <t>B08CDFWN1Q-Dads,Men-Apron</t>
+  </si>
+  <si>
     <t>B0DH7X2GCX-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0CM5QBW1Z-Birthday-Wineglass</t>
+    <t>B0CT8NQBN5-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0978WGWY4-Birthday-Wineglass</t>
+    <t>B0DVSKBSWN-Dads-BIble Jar</t>
   </si>
   <si>
-    <t>B0F59S8H6T-Dads-Card</t>
+    <t>B0CLYRNFBT-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0DJT3P5FK0-Birthday Ornaments</t>
   </si>
   <si>
-    <t>B0DJYD117Z-Birthday Ornaments</t>
+    <t>B0CG8N67SJ-Dads - tumblers</t>
   </si>
   <si>
     <t>B0D5YHG24C-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0CRDCNJ39-Birthday-Tumblers</t>
+    <t>B0CQJZP6TK-Aunt-Cf glass</t>
   </si>
   <si>
     <t>B0CN8ZP46N-Birthday-Tumblers</t>
@@ -371,10 +371,13 @@
     <t>B0CKYN27VS-Birthday-Cf glass</t>
   </si>
   <si>
-    <t>B0DK11YM64-Birthday Ornaments</t>
+    <t>B0CRDCNJ39-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0F17F23MZ-Dads-Tumbler</t>
+  </si>
+  <si>
+    <t>B0DK11YM64-Birthday Ornaments</t>
   </si>
   <si>
     <t>B0DCJQ2SKV-Moms-Cf glass</t>
@@ -2986,7 +2989,7 @@
       <xdr:row>84</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:ext cx="952500" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="84" name="" descr=""/>
@@ -2996,6 +2999,36 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3302,10 +3335,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AL85"/>
+  <dimension ref="A1:AL86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:AL85"/>
+      <selection activeCell="A1" sqref="A1:AL86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="20" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3332,7 +3365,7 @@
     <col min="20" max="20" width="19.995117" bestFit="true" customWidth="true" style="4"/>
     <col min="21" max="21" width="19.995117" bestFit="true" customWidth="true" style="4"/>
     <col min="22" max="22" width="8.140869" bestFit="true" customWidth="true" style="2"/>
-    <col min="23" max="23" width="4.570313" bestFit="true" customWidth="true" style="4"/>
+    <col min="23" max="23" width="6.998291" bestFit="true" customWidth="true" style="4"/>
     <col min="24" max="24" width="6.998291" bestFit="true" customWidth="true" style="3"/>
     <col min="25" max="25" width="8.140869" bestFit="true" customWidth="true" style="2"/>
     <col min="26" max="26" width="4.570313" bestFit="true" customWidth="true" style="4"/>
@@ -3472,7 +3505,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="7">
-        <v>17.94</v>
+        <v>17.87</v>
       </c>
       <c r="D2" s="7">
         <v>17.98</v>
@@ -3481,10 +3514,10 @@
         <v>0.14</v>
       </c>
       <c r="F2" s="7">
-        <v>0.47</v>
+        <v>0.17</v>
       </c>
       <c r="G2" s="6">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
@@ -3493,31 +3526,31 @@
         <v>0.0006</v>
       </c>
       <c r="J2" s="8">
-        <v>0.0003</v>
+        <v>0.0008</v>
       </c>
       <c r="K2" s="8">
         <v>0</v>
       </c>
       <c r="L2" s="7">
-        <v>17.94</v>
+        <v>17.87</v>
       </c>
       <c r="M2" s="6">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="N2" s="8">
         <v>0</v>
       </c>
       <c r="O2" s="9">
-        <v>129845</v>
+        <v>129634</v>
       </c>
       <c r="P2" s="9">
         <v>75</v>
       </c>
       <c r="Q2" s="9">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="R2" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S2" s="9">
         <v>1</v>
@@ -3532,25 +3565,25 @@
         <v>0.24</v>
       </c>
       <c r="W2" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="X2" s="8">
-        <v>0.0002</v>
+        <v>0.0006</v>
       </c>
       <c r="Y2" s="7">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="8">
         <v>0</v>
       </c>
       <c r="AB2" s="7">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="AC2" s="7">
-        <v>0</v>
+        <v>17.87</v>
       </c>
       <c r="AD2" s="7">
         <v>17.98</v>
@@ -3562,10 +3595,10 @@
         <v>17.98</v>
       </c>
       <c r="AG2" s="6">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AH2" s="6">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AI2" s="9">
         <v>1</v>
@@ -3577,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="AL2" s="7">
-        <v>17.94</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="90">
@@ -3586,19 +3619,19 @@
         <v>39</v>
       </c>
       <c r="C3" s="7">
-        <v>10.2</v>
+        <v>10.13</v>
       </c>
       <c r="D3" s="7">
         <v>19.98</v>
       </c>
       <c r="E3" s="7">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="7">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="G3" s="6">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
@@ -3607,28 +3640,28 @@
         <v>0.002</v>
       </c>
       <c r="J3" s="8">
-        <v>0.0011</v>
+        <v>0.0022</v>
       </c>
       <c r="K3" s="8">
         <v>0</v>
       </c>
       <c r="L3" s="7">
-        <v>10.2</v>
+        <v>10.13</v>
       </c>
       <c r="M3" s="6">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="N3" s="8">
         <v>0</v>
       </c>
       <c r="O3" s="9">
-        <v>20572</v>
+        <v>20470</v>
       </c>
       <c r="P3" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="R3" s="9">
         <v>1</v>
@@ -3646,13 +3679,13 @@
         <v>0.25</v>
       </c>
       <c r="W3" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="X3" s="8">
-        <v>0.0011</v>
+        <v>0.0022</v>
       </c>
       <c r="Y3" s="7">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
@@ -3661,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="7">
-        <v>10.2</v>
+        <v>10.13</v>
       </c>
       <c r="AC3" s="7">
         <v>0</v>
@@ -3676,10 +3709,10 @@
         <v>19.98</v>
       </c>
       <c r="AG3" s="6">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="AH3" s="6">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="AI3" s="9">
         <v>1</v>
@@ -3691,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="7">
-        <v>10.2</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="90">
@@ -3700,7 +3733,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="7">
-        <v>9.94</v>
+        <v>9.78</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -3709,7 +3742,7 @@
         <v>1.23</v>
       </c>
       <c r="F4" s="7">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3718,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>0.0051</v>
+        <v>0.0049</v>
       </c>
       <c r="J4" s="8">
-        <v>0.0045</v>
+        <v>0.0073</v>
       </c>
       <c r="K4" s="8">
         <v>0</v>
@@ -3736,13 +3769,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="9">
-        <v>8065</v>
+        <v>7971</v>
       </c>
       <c r="P4" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="9">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="R4" s="9">
         <v>0</v>
@@ -3757,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="V4" s="7">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="X4" s="8">
-        <v>0.0031</v>
+        <v>0.0059</v>
       </c>
       <c r="Y4" s="7">
-        <v>0.4</v>
+        <v>0.21</v>
       </c>
       <c r="Z4" s="9">
         <v>0</v>
@@ -3814,16 +3847,16 @@
         <v>41</v>
       </c>
       <c r="C5" s="7">
-        <v>9.63</v>
+        <v>9.56</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="F5" s="7">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3835,10 +3868,10 @@
         <v>0.0043</v>
       </c>
       <c r="J5" s="8">
-        <v>0.0019</v>
+        <v>0.0062</v>
       </c>
       <c r="K5" s="8">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
@@ -3850,16 +3883,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>7947</v>
+        <v>7851</v>
       </c>
       <c r="P5" s="9">
         <v>34</v>
       </c>
       <c r="Q5" s="9">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="R5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="9">
         <v>0</v>
@@ -3874,25 +3907,25 @@
         <v>0.28</v>
       </c>
       <c r="W5" s="9">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="X5" s="8">
-        <v>0.0018</v>
+        <v>0.0053</v>
       </c>
       <c r="Y5" s="7">
-        <v>0.69</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AB5" s="7">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="AC5" s="7">
-        <v>0</v>
+        <v>9.56</v>
       </c>
       <c r="AD5" s="7">
         <v>0</v>
@@ -3928,7 +3961,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="7">
-        <v>9.49</v>
+        <v>9.4</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -3937,7 +3970,7 @@
         <v>1.2</v>
       </c>
       <c r="F6" s="7">
-        <v>0.79</v>
+        <v>0.3</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3949,10 +3982,10 @@
         <v>0.0043</v>
       </c>
       <c r="J6" s="8">
-        <v>0.0015</v>
+        <v>0.004</v>
       </c>
       <c r="K6" s="8">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
@@ -3964,16 +3997,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>7919</v>
+        <v>7822</v>
       </c>
       <c r="P6" s="9">
         <v>34</v>
       </c>
       <c r="Q6" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S6" s="9">
         <v>0</v>
@@ -3982,31 +4015,31 @@
         <v>0</v>
       </c>
       <c r="U6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V6" s="7">
         <v>0.28</v>
       </c>
       <c r="W6" s="9">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="X6" s="8">
-        <v>0.0014</v>
+        <v>0.0036</v>
       </c>
       <c r="Y6" s="7">
-        <v>0.86</v>
+        <v>0.34</v>
       </c>
       <c r="Z6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="8">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="AB6" s="7">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="AC6" s="7">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="AD6" s="7">
         <v>0</v>
@@ -4042,34 +4075,34 @@
         <v>43</v>
       </c>
       <c r="C7" s="7">
-        <v>9.41</v>
+        <v>9.31</v>
       </c>
       <c r="D7" s="7">
         <v>21.98</v>
       </c>
       <c r="E7" s="7">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="F7" s="7">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="G7" s="6">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H7" s="8">
         <v>1</v>
       </c>
       <c r="I7" s="8">
-        <v>0.004</v>
+        <v>0.0037</v>
       </c>
       <c r="J7" s="8">
-        <v>0.0028</v>
+        <v>0.0045</v>
       </c>
       <c r="K7" s="8">
         <v>0.0003</v>
       </c>
       <c r="L7" s="7">
-        <v>9.41</v>
+        <v>9.31</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -4078,13 +4111,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>7957</v>
+        <v>7847</v>
       </c>
       <c r="P7" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="R7" s="9">
         <v>2</v>
@@ -4099,16 +4132,16 @@
         <v>0</v>
       </c>
       <c r="V7" s="7">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="W7" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="X7" s="8">
-        <v>0.0023</v>
+        <v>0.004</v>
       </c>
       <c r="Y7" s="7">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
       <c r="Z7" s="9">
         <v>1</v>
@@ -4117,10 +4150,10 @@
         <v>0.0001</v>
       </c>
       <c r="AB7" s="7">
-        <v>4.7</v>
+        <v>4.66</v>
       </c>
       <c r="AC7" s="7">
-        <v>9.41</v>
+        <v>9.31</v>
       </c>
       <c r="AD7" s="7">
         <v>0</v>
@@ -4132,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="6">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="AH7" s="6">
         <v>0</v>
@@ -4156,16 +4189,16 @@
         <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>9.38</v>
+        <v>9.29</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="F8" s="7">
-        <v>0.85</v>
+        <v>0.39</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -4174,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>0.0036</v>
+        <v>0.0035</v>
       </c>
       <c r="J8" s="8">
-        <v>0.0015</v>
+        <v>0.0033</v>
       </c>
       <c r="K8" s="8">
         <v>0.0001</v>
@@ -4192,13 +4225,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="9">
-        <v>7301</v>
+        <v>7204</v>
       </c>
       <c r="P8" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="9">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R8" s="9">
         <v>1</v>
@@ -4213,16 +4246,16 @@
         <v>0</v>
       </c>
       <c r="V8" s="7">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="W8" s="9">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="X8" s="8">
-        <v>0.0015</v>
+        <v>0.0033</v>
       </c>
       <c r="Y8" s="7">
-        <v>0.85</v>
+        <v>0.39</v>
       </c>
       <c r="Z8" s="9">
         <v>1</v>
@@ -4231,10 +4264,10 @@
         <v>0.0001</v>
       </c>
       <c r="AB8" s="7">
-        <v>9.38</v>
+        <v>9.29</v>
       </c>
       <c r="AC8" s="7">
-        <v>9.38</v>
+        <v>9.29</v>
       </c>
       <c r="AD8" s="7">
         <v>0</v>
@@ -4270,7 +4303,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="7">
-        <v>9.36</v>
+        <v>9.26</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -4279,7 +4312,7 @@
         <v>1.19</v>
       </c>
       <c r="F9" s="7">
-        <v>0.72</v>
+        <v>0.22</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -4288,13 +4321,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0036</v>
+        <v>0.0053</v>
       </c>
       <c r="J9" s="8">
-        <v>0.0017</v>
+        <v>0.0055</v>
       </c>
       <c r="K9" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -4306,16 +4339,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>7836</v>
+        <v>7767</v>
       </c>
       <c r="P9" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="9">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="R9" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9" s="9">
         <v>0</v>
@@ -4327,28 +4360,28 @@
         <v>0</v>
       </c>
       <c r="V9" s="7">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="W9" s="9">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="X9" s="8">
-        <v>0.0014</v>
+        <v>0.005</v>
       </c>
       <c r="Y9" s="7">
-        <v>0.85</v>
+        <v>0.24</v>
       </c>
       <c r="Z9" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AB9" s="7">
-        <v>0</v>
+        <v>4.63</v>
       </c>
       <c r="AC9" s="7">
-        <v>0</v>
+        <v>4.63</v>
       </c>
       <c r="AD9" s="7">
         <v>0</v>
@@ -4384,16 +4417,16 @@
         <v>46</v>
       </c>
       <c r="C10" s="7">
-        <v>9.35</v>
+        <v>9.26</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
       </c>
       <c r="E10" s="7">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="F10" s="7">
-        <v>0.58</v>
+        <v>0.21</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -4405,7 +4438,7 @@
         <v>0.0049</v>
       </c>
       <c r="J10" s="8">
-        <v>0.002</v>
+        <v>0.0058</v>
       </c>
       <c r="K10" s="8">
         <v>0</v>
@@ -4420,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>7900</v>
+        <v>7790</v>
       </c>
       <c r="P10" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="R10" s="9">
         <v>0</v>
@@ -4444,13 +4477,13 @@
         <v>0.24</v>
       </c>
       <c r="W10" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="X10" s="8">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="Y10" s="7">
-        <v>0.58</v>
+        <v>0.24</v>
       </c>
       <c r="Z10" s="9">
         <v>0</v>
@@ -4498,16 +4531,16 @@
         <v>47</v>
       </c>
       <c r="C11" s="7">
-        <v>9.32</v>
+        <v>9.24</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
       </c>
       <c r="E11" s="7">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="F11" s="7">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -4516,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>0.0052</v>
+        <v>0.0035</v>
       </c>
       <c r="J11" s="8">
-        <v>0.0029</v>
+        <v>0.0038</v>
       </c>
       <c r="K11" s="8">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
@@ -4534,16 +4567,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="9">
-        <v>7864</v>
+        <v>7722</v>
       </c>
       <c r="P11" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R11" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="9">
         <v>0</v>
@@ -4555,28 +4588,28 @@
         <v>0</v>
       </c>
       <c r="V11" s="7">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="W11" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X11" s="8">
-        <v>0.0027</v>
+        <v>0.0032</v>
       </c>
       <c r="Y11" s="7">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="Z11" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="8">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="7">
-        <v>4.66</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
-        <v>4.66</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="7">
         <v>0</v>
@@ -4612,52 +4645,52 @@
         <v>48</v>
       </c>
       <c r="C12" s="7">
-        <v>9.27</v>
+        <v>9.21</v>
       </c>
       <c r="D12" s="7">
         <v>19.98</v>
       </c>
       <c r="E12" s="7">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="F12" s="7">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
       <c r="G12" s="6">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="H12" s="8">
         <v>1</v>
       </c>
       <c r="I12" s="8">
-        <v>0.0033</v>
+        <v>0.0034</v>
       </c>
       <c r="J12" s="8">
-        <v>0.0044</v>
+        <v>0.0122</v>
       </c>
       <c r="K12" s="8">
-        <v>0.0003</v>
+        <v>0.001</v>
       </c>
       <c r="L12" s="7">
-        <v>9.27</v>
+        <v>9.21</v>
       </c>
       <c r="M12" s="6">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="N12" s="8">
         <v>0</v>
       </c>
       <c r="O12" s="9">
-        <v>6895</v>
+        <v>6805</v>
       </c>
       <c r="P12" s="9">
         <v>23</v>
       </c>
       <c r="Q12" s="9">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="R12" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S12" s="9">
         <v>1</v>
@@ -4672,25 +4705,25 @@
         <v>0.4</v>
       </c>
       <c r="W12" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="X12" s="8">
-        <v>0.0036</v>
+        <v>0.0101</v>
       </c>
       <c r="Y12" s="7">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="Z12" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA12" s="8">
-        <v>0.0003</v>
+        <v>0.0009</v>
       </c>
       <c r="AB12" s="7">
-        <v>4.63</v>
+        <v>1.32</v>
       </c>
       <c r="AC12" s="7">
-        <v>4.63</v>
+        <v>1.54</v>
       </c>
       <c r="AD12" s="7">
         <v>19.98</v>
@@ -4702,10 +4735,10 @@
         <v>19.98</v>
       </c>
       <c r="AG12" s="6">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="AH12" s="6">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="AI12" s="9">
         <v>1</v>
@@ -4717,7 +4750,7 @@
         <v>0.0001</v>
       </c>
       <c r="AL12" s="7">
-        <v>9.27</v>
+        <v>9.21</v>
       </c>
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="90">
@@ -4726,16 +4759,16 @@
         <v>49</v>
       </c>
       <c r="C13" s="7">
-        <v>9.23</v>
+        <v>9.17</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="F13" s="7">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -4744,10 +4777,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="8">
-        <v>0.0031</v>
+        <v>0.003</v>
       </c>
       <c r="J13" s="8">
-        <v>0.0024</v>
+        <v>0.0044</v>
       </c>
       <c r="K13" s="8">
         <v>0</v>
@@ -4762,13 +4795,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="9">
-        <v>7062</v>
+        <v>6967</v>
       </c>
       <c r="P13" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="R13" s="9">
         <v>0</v>
@@ -4783,16 +4816,16 @@
         <v>0</v>
       </c>
       <c r="V13" s="7">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="W13" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="X13" s="8">
-        <v>0.0024</v>
+        <v>0.0044</v>
       </c>
       <c r="Y13" s="7">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="Z13" s="9">
         <v>0</v>
@@ -4840,7 +4873,7 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>8.75</v>
+        <v>8.66</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -4849,7 +4882,7 @@
         <v>1.26</v>
       </c>
       <c r="F14" s="7">
-        <v>0.46</v>
+        <v>0.29</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -4858,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="8">
-        <v>0.0043</v>
+        <v>0.0044</v>
       </c>
       <c r="J14" s="8">
-        <v>0.0027</v>
+        <v>0.0044</v>
       </c>
       <c r="K14" s="8">
         <v>0</v>
@@ -4876,13 +4909,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="9">
-        <v>6941</v>
+        <v>6859</v>
       </c>
       <c r="P14" s="9">
         <v>30</v>
       </c>
       <c r="Q14" s="9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="R14" s="9">
         <v>0</v>
@@ -4900,13 +4933,13 @@
         <v>0.29</v>
       </c>
       <c r="W14" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="X14" s="8">
-        <v>0.0024</v>
+        <v>0.0041</v>
       </c>
       <c r="Y14" s="7">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
       <c r="Z14" s="9">
         <v>0</v>
@@ -4954,16 +4987,16 @@
         <v>51</v>
       </c>
       <c r="C15" s="7">
-        <v>8.64</v>
+        <v>8.53</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="F15" s="7">
-        <v>0.66</v>
+        <v>0.28</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -4972,13 +5005,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <v>0.003</v>
+        <v>0.0029</v>
       </c>
       <c r="J15" s="8">
-        <v>0.0019</v>
+        <v>0.0047</v>
       </c>
       <c r="K15" s="8">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
@@ -4990,16 +5023,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="9">
-        <v>6690</v>
+        <v>6584</v>
       </c>
       <c r="P15" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="9">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="R15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S15" s="9">
         <v>0</v>
@@ -5011,28 +5044,28 @@
         <v>0</v>
       </c>
       <c r="V15" s="7">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="W15" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="X15" s="8">
-        <v>0.0018</v>
+        <v>0.0043</v>
       </c>
       <c r="Y15" s="7">
-        <v>0.72</v>
+        <v>0.3</v>
       </c>
       <c r="Z15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA15" s="8">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="AB15" s="7">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AC15" s="7">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AD15" s="7">
         <v>0</v>
@@ -5068,7 +5101,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="7">
-        <v>8.37</v>
+        <v>8.28</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
@@ -5077,7 +5110,7 @@
         <v>1.21</v>
       </c>
       <c r="F16" s="7">
-        <v>0.76</v>
+        <v>0.3</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -5086,13 +5119,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="8">
-        <v>0.0035</v>
+        <v>0.0034</v>
       </c>
       <c r="J16" s="8">
-        <v>0.0016</v>
+        <v>0.0041</v>
       </c>
       <c r="K16" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L16" s="7">
         <v>0</v>
@@ -5104,16 +5137,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="9">
-        <v>6943</v>
+        <v>6846</v>
       </c>
       <c r="P16" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="9">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="R16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="9">
         <v>0</v>
@@ -5125,28 +5158,28 @@
         <v>0</v>
       </c>
       <c r="V16" s="7">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="W16" s="9">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="X16" s="8">
-        <v>0.0016</v>
+        <v>0.0039</v>
       </c>
       <c r="Y16" s="7">
-        <v>0.76</v>
+        <v>0.31</v>
       </c>
       <c r="Z16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AB16" s="7">
-        <v>0</v>
+        <v>8.28</v>
       </c>
       <c r="AC16" s="7">
-        <v>0</v>
+        <v>8.28</v>
       </c>
       <c r="AD16" s="7">
         <v>0</v>
@@ -5182,16 +5215,16 @@
         <v>53</v>
       </c>
       <c r="C17" s="7">
-        <v>8.19</v>
+        <v>8.11</v>
       </c>
       <c r="D17" s="7">
         <v>0</v>
       </c>
       <c r="E17" s="7">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="F17" s="7">
-        <v>1.17</v>
+        <v>0.35</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -5203,10 +5236,10 @@
         <v>0.0025</v>
       </c>
       <c r="J17" s="8">
-        <v>0.001</v>
+        <v>0.0034</v>
       </c>
       <c r="K17" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L17" s="7">
         <v>0</v>
@@ -5218,16 +5251,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="9">
-        <v>6832</v>
+        <v>6728</v>
       </c>
       <c r="P17" s="9">
         <v>17</v>
       </c>
       <c r="Q17" s="9">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="R17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="9">
         <v>0</v>
@@ -5242,25 +5275,25 @@
         <v>0.48</v>
       </c>
       <c r="W17" s="9">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="X17" s="8">
-        <v>0.0007</v>
+        <v>0.0028</v>
       </c>
       <c r="Y17" s="7">
-        <v>1.64</v>
+        <v>0.43</v>
       </c>
       <c r="Z17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AB17" s="7">
-        <v>0</v>
+        <v>8.11</v>
       </c>
       <c r="AC17" s="7">
-        <v>0</v>
+        <v>8.11</v>
       </c>
       <c r="AD17" s="7">
         <v>0</v>
@@ -5296,16 +5329,16 @@
         <v>54</v>
       </c>
       <c r="C18" s="7">
-        <v>8.12</v>
+        <v>8.06</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="F18" s="7">
-        <v>0.45</v>
+        <v>0.29</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -5314,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="8">
-        <v>0.0041</v>
+        <v>0.004</v>
       </c>
       <c r="J18" s="8">
-        <v>0.0027</v>
+        <v>0.0043</v>
       </c>
       <c r="K18" s="8">
         <v>0</v>
@@ -5332,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="9">
-        <v>6663</v>
+        <v>6577</v>
       </c>
       <c r="P18" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R18" s="9">
         <v>0</v>
@@ -5353,16 +5386,16 @@
         <v>0</v>
       </c>
       <c r="V18" s="7">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="W18" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="X18" s="8">
-        <v>0.0027</v>
+        <v>0.0043</v>
       </c>
       <c r="Y18" s="7">
-        <v>0.45</v>
+        <v>0.29</v>
       </c>
       <c r="Z18" s="9">
         <v>0</v>
@@ -5410,49 +5443,49 @@
         <v>55</v>
       </c>
       <c r="C19" s="7">
-        <v>7.92</v>
+        <v>7.85</v>
       </c>
       <c r="D19" s="7">
         <v>16.98</v>
       </c>
       <c r="E19" s="7">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="F19" s="7">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="G19" s="6">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H19" s="8">
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <v>0.0057</v>
+        <v>0.0058</v>
       </c>
       <c r="J19" s="8">
-        <v>0.0045</v>
+        <v>0.0092</v>
       </c>
       <c r="K19" s="8">
         <v>0.0002</v>
       </c>
       <c r="L19" s="7">
-        <v>7.92</v>
+        <v>7.85</v>
       </c>
       <c r="M19" s="6">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="N19" s="8">
         <v>0</v>
       </c>
       <c r="O19" s="9">
-        <v>6170</v>
+        <v>6083</v>
       </c>
       <c r="P19" s="9">
         <v>35</v>
       </c>
       <c r="Q19" s="9">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="R19" s="9">
         <v>1</v>
@@ -5467,16 +5500,16 @@
         <v>0</v>
       </c>
       <c r="V19" s="7">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="W19" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="X19" s="8">
-        <v>0.0044</v>
+        <v>0.0085</v>
       </c>
       <c r="Y19" s="7">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="Z19" s="9">
         <v>1</v>
@@ -5485,10 +5518,10 @@
         <v>0.0002</v>
       </c>
       <c r="AB19" s="7">
-        <v>7.92</v>
+        <v>7.85</v>
       </c>
       <c r="AC19" s="7">
-        <v>7.92</v>
+        <v>7.85</v>
       </c>
       <c r="AD19" s="7">
         <v>16.98</v>
@@ -5515,7 +5548,7 @@
         <v>0.0002</v>
       </c>
       <c r="AL19" s="7">
-        <v>7.92</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="20" spans="1:38" customHeight="1" ht="90">
@@ -5524,16 +5557,16 @@
         <v>56</v>
       </c>
       <c r="C20" s="7">
-        <v>7.88</v>
+        <v>7.82</v>
       </c>
       <c r="D20" s="7">
         <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="F20" s="7">
-        <v>0.79</v>
+        <v>0.24</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -5545,7 +5578,7 @@
         <v>0.0045</v>
       </c>
       <c r="J20" s="8">
-        <v>0.0017</v>
+        <v>0.0057</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
@@ -5560,13 +5593,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="9">
-        <v>5834</v>
+        <v>5747</v>
       </c>
       <c r="P20" s="9">
         <v>26</v>
       </c>
       <c r="Q20" s="9">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="R20" s="9">
         <v>0</v>
@@ -5584,13 +5617,13 @@
         <v>0.3</v>
       </c>
       <c r="W20" s="9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="X20" s="8">
-        <v>0.0017</v>
+        <v>0.0052</v>
       </c>
       <c r="Y20" s="7">
-        <v>0.79</v>
+        <v>0.26</v>
       </c>
       <c r="Z20" s="9">
         <v>0</v>
@@ -5638,16 +5671,16 @@
         <v>57</v>
       </c>
       <c r="C21" s="7">
-        <v>7.85</v>
+        <v>7.75</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
       </c>
       <c r="E21" s="7">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="F21" s="7">
-        <v>0.44</v>
+        <v>0.23</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -5656,13 +5689,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <v>0.004</v>
+        <v>0.0041</v>
       </c>
       <c r="J21" s="8">
-        <v>0.0027</v>
+        <v>0.005</v>
       </c>
       <c r="K21" s="8">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="L21" s="7">
         <v>0</v>
@@ -5674,13 +5707,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="9">
-        <v>6748</v>
+        <v>6640</v>
       </c>
       <c r="P21" s="9">
         <v>27</v>
       </c>
       <c r="Q21" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="R21" s="9">
         <v>1</v>
@@ -5698,25 +5731,25 @@
         <v>0.29</v>
       </c>
       <c r="W21" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="X21" s="8">
-        <v>0.0027</v>
+        <v>0.0048</v>
       </c>
       <c r="Y21" s="7">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="Z21" s="9">
         <v>1</v>
       </c>
       <c r="AA21" s="8">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="AB21" s="7">
-        <v>7.85</v>
+        <v>7.75</v>
       </c>
       <c r="AC21" s="7">
-        <v>7.85</v>
+        <v>7.75</v>
       </c>
       <c r="AD21" s="7">
         <v>0</v>
@@ -5752,16 +5785,16 @@
         <v>58</v>
       </c>
       <c r="C22" s="7">
-        <v>7.72</v>
+        <v>7.64</v>
       </c>
       <c r="D22" s="7">
         <v>0</v>
       </c>
       <c r="E22" s="7">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="F22" s="7">
-        <v>0.41</v>
+        <v>0.21</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
@@ -5773,7 +5806,7 @@
         <v>0.0033</v>
       </c>
       <c r="J22" s="8">
-        <v>0.003</v>
+        <v>0.0057</v>
       </c>
       <c r="K22" s="8">
         <v>0</v>
@@ -5788,13 +5821,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="9">
-        <v>6433</v>
+        <v>6331</v>
       </c>
       <c r="P22" s="9">
         <v>21</v>
       </c>
       <c r="Q22" s="9">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="R22" s="9">
         <v>0</v>
@@ -5809,16 +5842,16 @@
         <v>0</v>
       </c>
       <c r="V22" s="7">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="W22" s="9">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="X22" s="8">
-        <v>0.003</v>
+        <v>0.0055</v>
       </c>
       <c r="Y22" s="7">
-        <v>0.41</v>
+        <v>0.22</v>
       </c>
       <c r="Z22" s="9">
         <v>0</v>
@@ -5866,16 +5899,16 @@
         <v>59</v>
       </c>
       <c r="C23" s="7">
-        <v>6.45</v>
+        <v>6.37</v>
       </c>
       <c r="D23" s="7">
         <v>0</v>
       </c>
       <c r="E23" s="7">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="F23" s="7">
-        <v>0.59</v>
+        <v>0.23</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
@@ -5884,10 +5917,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>0.0021</v>
+        <v>0.003</v>
       </c>
       <c r="J23" s="8">
-        <v>0.0021</v>
+        <v>0.0052</v>
       </c>
       <c r="K23" s="8">
         <v>0</v>
@@ -5902,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="9">
-        <v>5355</v>
+        <v>5337</v>
       </c>
       <c r="P23" s="9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="9">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="R23" s="9">
         <v>0</v>
@@ -5923,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="7">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="W23" s="9">
         <v>1</v>
@@ -5932,7 +5965,7 @@
         <v>0.0002</v>
       </c>
       <c r="Y23" s="7">
-        <v>6.45</v>
+        <v>6.37</v>
       </c>
       <c r="Z23" s="9">
         <v>0</v>
@@ -5980,16 +6013,16 @@
         <v>60</v>
       </c>
       <c r="C24" s="7">
-        <v>6.44</v>
+        <v>6.35</v>
       </c>
       <c r="D24" s="7">
         <v>0</v>
       </c>
       <c r="E24" s="7">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="F24" s="7">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
@@ -5998,10 +6031,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="8">
-        <v>0.0029</v>
+        <v>0.0015</v>
       </c>
       <c r="J24" s="8">
-        <v>0.0026</v>
+        <v>0.0025</v>
       </c>
       <c r="K24" s="8">
         <v>0</v>
@@ -6016,13 +6049,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="9">
-        <v>5424</v>
+        <v>5208</v>
       </c>
       <c r="P24" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q24" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R24" s="9">
         <v>0</v>
@@ -6037,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="7">
-        <v>0.4</v>
+        <v>0.79</v>
       </c>
       <c r="W24" s="9">
         <v>0</v>
@@ -6094,7 +6127,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="7">
-        <v>6.43</v>
+        <v>6.34</v>
       </c>
       <c r="D25" s="7">
         <v>0</v>
@@ -6103,7 +6136,7 @@
         <v>1.21</v>
       </c>
       <c r="F25" s="7">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
@@ -6112,13 +6145,13 @@
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>0.0015</v>
+        <v>0.0021</v>
       </c>
       <c r="J25" s="8">
-        <v>0.0015</v>
+        <v>0.004</v>
       </c>
       <c r="K25" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L25" s="7">
         <v>0</v>
@@ -6130,16 +6163,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="9">
-        <v>5304</v>
+        <v>5244</v>
       </c>
       <c r="P25" s="9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="R25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="9">
         <v>0</v>
@@ -6151,28 +6184,28 @@
         <v>0</v>
       </c>
       <c r="V25" s="7">
-        <v>0.8</v>
+        <v>0.58</v>
       </c>
       <c r="W25" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X25" s="8">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="Y25" s="7">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Z25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="AB25" s="7">
-        <v>0</v>
+        <v>6.34</v>
       </c>
       <c r="AC25" s="7">
-        <v>0</v>
+        <v>6.34</v>
       </c>
       <c r="AD25" s="7">
         <v>0</v>
@@ -6208,7 +6241,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="7">
-        <v>6.36</v>
+        <v>6.29</v>
       </c>
       <c r="D26" s="7">
         <v>0</v>
@@ -6217,7 +6250,7 @@
         <v>1.18</v>
       </c>
       <c r="F26" s="7">
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
@@ -6226,10 +6259,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="8">
-        <v>0.0024</v>
+        <v>0.0032</v>
       </c>
       <c r="J26" s="8">
-        <v>0.0028</v>
+        <v>0.009</v>
       </c>
       <c r="K26" s="8">
         <v>0</v>
@@ -6244,13 +6277,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="9">
-        <v>5374</v>
+        <v>5313</v>
       </c>
       <c r="P26" s="9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="9">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="R26" s="9">
         <v>0</v>
@@ -6265,16 +6298,16 @@
         <v>0</v>
       </c>
       <c r="V26" s="7">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
       <c r="W26" s="9">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="X26" s="8">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
       <c r="Y26" s="7">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Z26" s="9">
         <v>0</v>
@@ -6322,13 +6355,13 @@
         <v>63</v>
       </c>
       <c r="C27" s="7">
-        <v>6.36</v>
+        <v>6.25</v>
       </c>
       <c r="D27" s="7">
         <v>0</v>
       </c>
       <c r="E27" s="7">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="F27" s="7">
         <v>0.26</v>
@@ -6340,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <v>0.0031</v>
+        <v>0.0025</v>
       </c>
       <c r="J27" s="8">
-        <v>0.0044</v>
+        <v>0.0046</v>
       </c>
       <c r="K27" s="8">
         <v>0</v>
@@ -6358,10 +6391,10 @@
         <v>0</v>
       </c>
       <c r="O27" s="9">
-        <v>5403</v>
+        <v>5267</v>
       </c>
       <c r="P27" s="9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="9">
         <v>24</v>
@@ -6379,16 +6412,16 @@
         <v>0</v>
       </c>
       <c r="V27" s="7">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="W27" s="9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="X27" s="8">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="7">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="9">
         <v>0</v>
@@ -6436,16 +6469,16 @@
         <v>64</v>
       </c>
       <c r="C28" s="7">
-        <v>6.19</v>
+        <v>6.09</v>
       </c>
       <c r="D28" s="7">
         <v>0</v>
       </c>
       <c r="E28" s="7">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="F28" s="7">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
@@ -6457,7 +6490,7 @@
         <v>0.0027</v>
       </c>
       <c r="J28" s="8">
-        <v>0.0034</v>
+        <v>0.0071</v>
       </c>
       <c r="K28" s="8">
         <v>0.0004</v>
@@ -6472,13 +6505,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="9">
-        <v>5279</v>
+        <v>5179</v>
       </c>
       <c r="P28" s="9">
         <v>14</v>
       </c>
       <c r="Q28" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="R28" s="9">
         <v>2</v>
@@ -6496,13 +6529,13 @@
         <v>0.44</v>
       </c>
       <c r="W28" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X28" s="8">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="Y28" s="7">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="Z28" s="9">
         <v>0</v>
@@ -6511,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="7">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="AC28" s="7">
         <v>0</v>
@@ -6550,52 +6583,52 @@
         <v>65</v>
       </c>
       <c r="C29" s="7">
-        <v>5.22</v>
+        <v>5.13</v>
       </c>
       <c r="D29" s="7">
         <v>9.99</v>
       </c>
       <c r="E29" s="7">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="F29" s="7">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="G29" s="6">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H29" s="8">
         <v>1</v>
       </c>
       <c r="I29" s="8">
-        <v>0.0041</v>
+        <v>0.0042</v>
       </c>
       <c r="J29" s="8">
-        <v>0.0056</v>
+        <v>0.011</v>
       </c>
       <c r="K29" s="8">
-        <v>0.0011</v>
+        <v>0.0019</v>
       </c>
       <c r="L29" s="7">
-        <v>5.22</v>
+        <v>5.13</v>
       </c>
       <c r="M29" s="6">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="N29" s="8">
         <v>0</v>
       </c>
       <c r="O29" s="9">
-        <v>2660</v>
+        <v>2647</v>
       </c>
       <c r="P29" s="9">
         <v>11</v>
       </c>
       <c r="Q29" s="9">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="R29" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S29" s="9">
         <v>1</v>
@@ -6610,25 +6643,25 @@
         <v>0.47</v>
       </c>
       <c r="W29" s="9">
+        <v>11</v>
+      </c>
+      <c r="X29" s="8">
+        <v>0.0042</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="Z29" s="9">
         <v>4</v>
       </c>
-      <c r="X29" s="8">
+      <c r="AA29" s="8">
         <v>0.0015</v>
       </c>
-      <c r="Y29" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="Z29" s="9">
-        <v>3</v>
-      </c>
-      <c r="AA29" s="8">
-        <v>0.0011</v>
-      </c>
       <c r="AB29" s="7">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="AC29" s="7">
-        <v>1.74</v>
+        <v>1.28</v>
       </c>
       <c r="AD29" s="7">
         <v>9.99</v>
@@ -6640,10 +6673,10 @@
         <v>9.99</v>
       </c>
       <c r="AG29" s="6">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AH29" s="6">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AI29" s="9">
         <v>1</v>
@@ -6655,7 +6688,7 @@
         <v>0.0004</v>
       </c>
       <c r="AL29" s="7">
-        <v>5.22</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="90">
@@ -6664,19 +6697,19 @@
         <v>66</v>
       </c>
       <c r="C30" s="7">
-        <v>4.95</v>
+        <v>4.94</v>
       </c>
       <c r="D30" s="7">
         <v>45.95</v>
       </c>
       <c r="E30" s="7">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="F30" s="7">
-        <v>0.62</v>
+        <v>0.27</v>
       </c>
       <c r="G30" s="6">
-        <v>9.28</v>
+        <v>9.3</v>
       </c>
       <c r="H30" s="8">
         <v>1</v>
@@ -6685,7 +6718,7 @@
         <v>0.0046</v>
       </c>
       <c r="J30" s="8">
-        <v>0.003</v>
+        <v>0.0069</v>
       </c>
       <c r="K30" s="8">
         <v>0.0004</v>
@@ -6694,19 +6727,19 @@
         <v>1.65</v>
       </c>
       <c r="M30" s="6">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="N30" s="8">
         <v>0</v>
       </c>
       <c r="O30" s="9">
-        <v>2632</v>
+        <v>2620</v>
       </c>
       <c r="P30" s="9">
         <v>12</v>
       </c>
       <c r="Q30" s="9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="R30" s="9">
         <v>1</v>
@@ -6724,13 +6757,13 @@
         <v>0.41</v>
       </c>
       <c r="W30" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="X30" s="8">
-        <v>0.0023</v>
+        <v>0.0061</v>
       </c>
       <c r="Y30" s="7">
-        <v>0.82</v>
+        <v>0.31</v>
       </c>
       <c r="Z30" s="9">
         <v>0</v>
@@ -6739,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="7">
-        <v>4.95</v>
+        <v>4.94</v>
       </c>
       <c r="AC30" s="7">
         <v>0</v>
@@ -6754,10 +6787,10 @@
         <v>29.97</v>
       </c>
       <c r="AG30" s="6">
-        <v>9.28</v>
+        <v>9.3</v>
       </c>
       <c r="AH30" s="6">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="AI30" s="9">
         <v>2</v>
@@ -6769,7 +6802,7 @@
         <v>0.0008</v>
       </c>
       <c r="AL30" s="7">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="31" spans="1:38" customHeight="1" ht="90">
@@ -6778,7 +6811,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="7">
-        <v>4.45</v>
+        <v>4.43</v>
       </c>
       <c r="D31" s="7">
         <v>0</v>
@@ -6787,7 +6820,7 @@
         <v>1.2</v>
       </c>
       <c r="F31" s="7">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -6799,10 +6832,10 @@
         <v>0.0022</v>
       </c>
       <c r="J31" s="8">
-        <v>0.0024</v>
+        <v>0.0071</v>
       </c>
       <c r="K31" s="8">
-        <v>0.0003</v>
+        <v>0.0008</v>
       </c>
       <c r="L31" s="7">
         <v>0</v>
@@ -6814,16 +6847,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="9">
-        <v>3693</v>
+        <v>3679</v>
       </c>
       <c r="P31" s="9">
         <v>8</v>
       </c>
       <c r="Q31" s="9">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="R31" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S31" s="9">
         <v>0</v>
@@ -6835,16 +6868,16 @@
         <v>0</v>
       </c>
       <c r="V31" s="7">
-        <v>0.56</v>
+        <v>0.55</v>
       </c>
       <c r="W31" s="9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="X31" s="8">
-        <v>0.0019</v>
+        <v>0.0035</v>
       </c>
       <c r="Y31" s="7">
-        <v>0.64</v>
+        <v>0.34</v>
       </c>
       <c r="Z31" s="9">
         <v>0</v>
@@ -6853,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="7">
-        <v>4.45</v>
+        <v>1.48</v>
       </c>
       <c r="AC31" s="7">
         <v>0</v>
@@ -6901,7 +6934,7 @@
         <v>1.14</v>
       </c>
       <c r="F32" s="7">
-        <v>0.62</v>
+        <v>0.19</v>
       </c>
       <c r="G32" s="6">
         <v>2.32</v>
@@ -6913,10 +6946,10 @@
         <v>0.0024</v>
       </c>
       <c r="J32" s="8">
-        <v>0.0019</v>
+        <v>0.0061</v>
       </c>
       <c r="K32" s="8">
-        <v>0.0003</v>
+        <v>0.0016</v>
       </c>
       <c r="L32" s="7">
         <v>4.31</v>
@@ -6928,16 +6961,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="9">
-        <v>3775</v>
+        <v>3766</v>
       </c>
       <c r="P32" s="9">
         <v>9</v>
       </c>
       <c r="Q32" s="9">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="R32" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S32" s="9">
         <v>1</v>
@@ -6952,25 +6985,25 @@
         <v>0.48</v>
       </c>
       <c r="W32" s="9">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="X32" s="8">
-        <v>0.0019</v>
+        <v>0.0058</v>
       </c>
       <c r="Y32" s="7">
-        <v>0.62</v>
+        <v>0.2</v>
       </c>
       <c r="Z32" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA32" s="8">
-        <v>0.0003</v>
+        <v>0.0016</v>
       </c>
       <c r="AB32" s="7">
-        <v>4.31</v>
+        <v>0.72</v>
       </c>
       <c r="AC32" s="7">
-        <v>4.31</v>
+        <v>0.72</v>
       </c>
       <c r="AD32" s="7">
         <v>9.99</v>
@@ -7006,7 +7039,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="7">
-        <v>3.83</v>
+        <v>3.8</v>
       </c>
       <c r="D33" s="7">
         <v>48.94</v>
@@ -7015,10 +7048,10 @@
         <v>1.53</v>
       </c>
       <c r="F33" s="7">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="G33" s="6">
-        <v>12.78</v>
+        <v>12.88</v>
       </c>
       <c r="H33" s="8">
         <v>1</v>
@@ -7027,31 +7060,31 @@
         <v>0.0036</v>
       </c>
       <c r="J33" s="8">
-        <v>0.0088</v>
+        <v>0.019</v>
       </c>
       <c r="K33" s="8">
-        <v>0.0016</v>
+        <v>0.0024</v>
       </c>
       <c r="L33" s="7">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M33" s="6">
-        <v>4.17</v>
+        <v>4.21</v>
       </c>
       <c r="N33" s="8">
         <v>0</v>
       </c>
       <c r="O33" s="9">
-        <v>2503</v>
+        <v>2480</v>
       </c>
       <c r="P33" s="9">
         <v>9</v>
       </c>
       <c r="Q33" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="R33" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S33" s="9">
         <v>3</v>
@@ -7063,28 +7096,28 @@
         <v>0</v>
       </c>
       <c r="V33" s="7">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="W33" s="9">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="X33" s="8">
-        <v>0.0052</v>
+        <v>0.0121</v>
       </c>
       <c r="Y33" s="7">
-        <v>0.29</v>
+        <v>0.13</v>
       </c>
       <c r="Z33" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA33" s="8">
-        <v>0.0004</v>
+        <v>0.0008</v>
       </c>
       <c r="AB33" s="7">
-        <v>0.96</v>
+        <v>0.63</v>
       </c>
       <c r="AC33" s="7">
-        <v>3.83</v>
+        <v>1.9</v>
       </c>
       <c r="AD33" s="7">
         <v>15.98</v>
@@ -7096,10 +7129,10 @@
         <v>15.98</v>
       </c>
       <c r="AG33" s="6">
-        <v>12.78</v>
+        <v>12.88</v>
       </c>
       <c r="AH33" s="6">
-        <v>4.17</v>
+        <v>4.21</v>
       </c>
       <c r="AI33" s="9">
         <v>1</v>
@@ -7111,7 +7144,7 @@
         <v>0.0004</v>
       </c>
       <c r="AL33" s="7">
-        <v>3.83</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="34" spans="1:38" customHeight="1" ht="90">
@@ -7129,7 +7162,7 @@
         <v>1.53</v>
       </c>
       <c r="F34" s="7">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
       <c r="G34" s="6">
         <v>4.35</v>
@@ -7141,10 +7174,10 @@
         <v>0.0029</v>
       </c>
       <c r="J34" s="8">
-        <v>0.0037</v>
+        <v>0.0088</v>
       </c>
       <c r="K34" s="8">
-        <v>0.0004</v>
+        <v>0.0021</v>
       </c>
       <c r="L34" s="7">
         <v>3.67</v>
@@ -7156,16 +7189,16 @@
         <v>0</v>
       </c>
       <c r="O34" s="9">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="P34" s="9">
         <v>7</v>
       </c>
       <c r="Q34" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="R34" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S34" s="9">
         <v>1</v>
@@ -7180,25 +7213,25 @@
         <v>0.52</v>
       </c>
       <c r="W34" s="9">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="X34" s="8">
-        <v>0.0037</v>
+        <v>0.0079</v>
       </c>
       <c r="Y34" s="7">
-        <v>0.41</v>
+        <v>0.19</v>
       </c>
       <c r="Z34" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA34" s="8">
-        <v>0.0004</v>
+        <v>0.0021</v>
       </c>
       <c r="AB34" s="7">
-        <v>3.67</v>
+        <v>0.73</v>
       </c>
       <c r="AC34" s="7">
-        <v>3.67</v>
+        <v>0.73</v>
       </c>
       <c r="AD34" s="7">
         <v>15.98</v>
@@ -7234,7 +7267,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="7">
-        <v>3.47</v>
+        <v>3.46</v>
       </c>
       <c r="D35" s="7">
         <v>69.92</v>
@@ -7243,10 +7276,10 @@
         <v>2.07</v>
       </c>
       <c r="F35" s="7">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="G35" s="6">
-        <v>20.15</v>
+        <v>20.21</v>
       </c>
       <c r="H35" s="8">
         <v>1</v>
@@ -7255,31 +7288,31 @@
         <v>0.0036</v>
       </c>
       <c r="J35" s="8">
-        <v>0.0131</v>
+        <v>0.0228</v>
       </c>
       <c r="K35" s="8">
-        <v>0.0006</v>
+        <v>0.0024</v>
       </c>
       <c r="L35" s="7">
         <v>0.69</v>
       </c>
       <c r="M35" s="6">
-        <v>12.67</v>
+        <v>12.7</v>
       </c>
       <c r="N35" s="8">
         <v>0</v>
       </c>
       <c r="O35" s="9">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="P35" s="9">
         <v>6</v>
       </c>
       <c r="Q35" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="R35" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S35" s="9">
         <v>5</v>
@@ -7294,25 +7327,25 @@
         <v>0.58</v>
       </c>
       <c r="W35" s="9">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X35" s="8">
-        <v>0.006</v>
+        <v>0.0102</v>
       </c>
       <c r="Y35" s="7">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="Z35" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA35" s="8">
-        <v>0.0006</v>
+        <v>0.0018</v>
       </c>
       <c r="AB35" s="7">
-        <v>3.47</v>
+        <v>0.86</v>
       </c>
       <c r="AC35" s="7">
-        <v>3.47</v>
+        <v>1.15</v>
       </c>
       <c r="AD35" s="7">
         <v>43.95</v>
@@ -7324,10 +7357,10 @@
         <v>43.95</v>
       </c>
       <c r="AG35" s="6">
-        <v>20.15</v>
+        <v>20.21</v>
       </c>
       <c r="AH35" s="6">
-        <v>12.67</v>
+        <v>12.7</v>
       </c>
       <c r="AI35" s="9">
         <v>3</v>
@@ -7339,7 +7372,7 @@
         <v>0.0018</v>
       </c>
       <c r="AL35" s="7">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="90">
@@ -7348,73 +7381,73 @@
         <v>72</v>
       </c>
       <c r="C36" s="7">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="D36" s="7">
-        <v>39.96</v>
+        <v>17.98</v>
       </c>
       <c r="E36" s="7">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="F36" s="7">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="G36" s="6">
-        <v>12.3</v>
+        <v>5.6</v>
       </c>
       <c r="H36" s="8">
         <v>1</v>
       </c>
       <c r="I36" s="8">
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="J36" s="8">
-        <v>0.0101</v>
+        <v>0.0087</v>
       </c>
       <c r="K36" s="8">
-        <v>0.0006</v>
+        <v>0.0012</v>
       </c>
       <c r="L36" s="7">
-        <v>1.62</v>
+        <v>3.21</v>
       </c>
       <c r="M36" s="6">
-        <v>6.15</v>
+        <v>0</v>
       </c>
       <c r="N36" s="8">
         <v>0</v>
       </c>
       <c r="O36" s="9">
-        <v>1774</v>
+        <v>1721</v>
       </c>
       <c r="P36" s="9">
         <v>2</v>
       </c>
       <c r="Q36" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R36" s="9">
+        <v>2</v>
+      </c>
+      <c r="S36" s="9">
         <v>1</v>
       </c>
-      <c r="S36" s="9">
-        <v>2</v>
-      </c>
       <c r="T36" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U36" s="9">
         <v>0</v>
       </c>
       <c r="V36" s="7">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W36" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X36" s="8">
-        <v>0.0011</v>
+        <v>0.0046</v>
       </c>
       <c r="Y36" s="7">
-        <v>1.62</v>
+        <v>0.4</v>
       </c>
       <c r="Z36" s="9">
         <v>0</v>
@@ -7423,37 +7456,37 @@
         <v>0</v>
       </c>
       <c r="AB36" s="7">
-        <v>3.25</v>
+        <v>1.61</v>
       </c>
       <c r="AC36" s="7">
         <v>0</v>
       </c>
       <c r="AD36" s="7">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="7">
-        <v>39.96</v>
+        <v>17.98</v>
       </c>
       <c r="AF36" s="7">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="6">
-        <v>12.3</v>
+        <v>5.6</v>
       </c>
       <c r="AH36" s="6">
-        <v>6.15</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="8">
-        <v>0.0011</v>
+        <v>0.0006</v>
       </c>
       <c r="AK36" s="8">
-        <v>0.0006</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="7">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="90">
@@ -7462,19 +7495,19 @@
         <v>73</v>
       </c>
       <c r="C37" s="7">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
       <c r="D37" s="7">
         <v>123.86</v>
       </c>
       <c r="E37" s="7">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="F37" s="7">
-        <v>0.13</v>
+        <v>0.07</v>
       </c>
       <c r="G37" s="6">
-        <v>38.35</v>
+        <v>38.59</v>
       </c>
       <c r="H37" s="8">
         <v>0.7143</v>
@@ -7483,31 +7516,31 @@
         <v>0.0034</v>
       </c>
       <c r="J37" s="8">
-        <v>0.0134</v>
+        <v>0.0275</v>
       </c>
       <c r="K37" s="8">
-        <v>0.0017</v>
+        <v>0.0034</v>
       </c>
       <c r="L37" s="7">
         <v>0.46</v>
       </c>
       <c r="M37" s="6">
-        <v>16.39</v>
+        <v>16.49</v>
       </c>
       <c r="N37" s="8">
         <v>0</v>
       </c>
       <c r="O37" s="9">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="P37" s="9">
         <v>6</v>
       </c>
       <c r="Q37" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="R37" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S37" s="9">
         <v>7</v>
@@ -7522,25 +7555,25 @@
         <v>0.54</v>
       </c>
       <c r="W37" s="9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="X37" s="8">
-        <v>0.005</v>
+        <v>0.0101</v>
       </c>
       <c r="Y37" s="7">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="Z37" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA37" s="8">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="AB37" s="7">
-        <v>1.08</v>
+        <v>0.54</v>
       </c>
       <c r="AC37" s="7">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AD37" s="7">
         <v>52.94</v>
@@ -7552,10 +7585,10 @@
         <v>52.94</v>
       </c>
       <c r="AG37" s="6">
-        <v>28.45</v>
+        <v>28.63</v>
       </c>
       <c r="AH37" s="6">
-        <v>16.39</v>
+        <v>16.49</v>
       </c>
       <c r="AI37" s="9">
         <v>3</v>
@@ -7567,7 +7600,7 @@
         <v>0.0017</v>
       </c>
       <c r="AL37" s="7">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="38" spans="1:38" customHeight="1" ht="90">
@@ -7576,52 +7609,52 @@
         <v>74</v>
       </c>
       <c r="C38" s="7">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="D38" s="7">
-        <v>17.98</v>
+        <v>22.98</v>
       </c>
       <c r="E38" s="7">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="F38" s="7">
-        <v>0.8</v>
+        <v>0.11</v>
       </c>
       <c r="G38" s="6">
-        <v>5.6</v>
+        <v>7.18</v>
       </c>
       <c r="H38" s="8">
         <v>1</v>
       </c>
       <c r="I38" s="8">
-        <v>0.0012</v>
+        <v>0.0037</v>
       </c>
       <c r="J38" s="8">
-        <v>0.0023</v>
+        <v>0.0179</v>
       </c>
       <c r="K38" s="8">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="L38" s="7">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="M38" s="6">
-        <v>0</v>
+        <v>7.18</v>
       </c>
       <c r="N38" s="8">
         <v>0</v>
       </c>
       <c r="O38" s="9">
-        <v>1729</v>
+        <v>1618</v>
       </c>
       <c r="P38" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q38" s="9">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="R38" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S38" s="9">
         <v>1</v>
@@ -7633,55 +7666,55 @@
         <v>0</v>
       </c>
       <c r="V38" s="7">
-        <v>1.61</v>
+        <v>0.53</v>
       </c>
       <c r="W38" s="9">
+        <v>28</v>
+      </c>
+      <c r="X38" s="8">
+        <v>0.0173</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="Z38" s="9">
         <v>3</v>
       </c>
-      <c r="X38" s="8">
-        <v>0.0017</v>
-      </c>
-      <c r="Y38" s="7">
+      <c r="AA38" s="8">
+        <v>0.0019</v>
+      </c>
+      <c r="AB38" s="7">
         <v>1.07</v>
       </c>
-      <c r="Z38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="7">
-        <v>0</v>
-      </c>
       <c r="AC38" s="7">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AD38" s="7">
-        <v>0</v>
+        <v>22.98</v>
       </c>
       <c r="AE38" s="7">
-        <v>17.98</v>
+        <v>22.98</v>
       </c>
       <c r="AF38" s="7">
-        <v>0</v>
+        <v>22.98</v>
       </c>
       <c r="AG38" s="6">
-        <v>5.6</v>
+        <v>7.18</v>
       </c>
       <c r="AH38" s="6">
-        <v>0</v>
+        <v>7.18</v>
       </c>
       <c r="AI38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="8">
         <v>0.0006</v>
       </c>
       <c r="AK38" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AL38" s="7">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="39" spans="1:38" customHeight="1" ht="90">
@@ -7690,73 +7723,73 @@
         <v>75</v>
       </c>
       <c r="C39" s="7">
-        <v>3.21</v>
+        <v>3.19</v>
       </c>
       <c r="D39" s="7">
-        <v>22.98</v>
+        <v>39.96</v>
       </c>
       <c r="E39" s="7">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="F39" s="7">
-        <v>0.29</v>
+        <v>0.09</v>
       </c>
       <c r="G39" s="6">
-        <v>7.16</v>
+        <v>12.53</v>
       </c>
       <c r="H39" s="8">
         <v>1</v>
       </c>
       <c r="I39" s="8">
-        <v>0.0037</v>
+        <v>0.0011</v>
       </c>
       <c r="J39" s="8">
+        <v>0.0199</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0.0011</v>
+      </c>
+      <c r="L39" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="M39" s="6">
+        <v>6.26</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>1763</v>
+      </c>
+      <c r="P39" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>35</v>
+      </c>
+      <c r="R39" s="9">
+        <v>2</v>
+      </c>
+      <c r="S39" s="9">
+        <v>2</v>
+      </c>
+      <c r="T39" s="9">
+        <v>2</v>
+      </c>
+      <c r="U39" s="9">
+        <v>0</v>
+      </c>
+      <c r="V39" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="W39" s="9">
+        <v>12</v>
+      </c>
+      <c r="X39" s="8">
         <v>0.0068</v>
       </c>
-      <c r="K39" s="8">
-        <v>0.0006</v>
-      </c>
-      <c r="L39" s="7">
-        <v>3.21</v>
-      </c>
-      <c r="M39" s="6">
-        <v>7.16</v>
-      </c>
-      <c r="N39" s="8">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9">
-        <v>1622</v>
-      </c>
-      <c r="P39" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q39" s="9">
-        <v>11</v>
-      </c>
-      <c r="R39" s="9">
-        <v>1</v>
-      </c>
-      <c r="S39" s="9">
-        <v>1</v>
-      </c>
-      <c r="T39" s="9">
-        <v>1</v>
-      </c>
-      <c r="U39" s="9">
-        <v>0</v>
-      </c>
-      <c r="V39" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="W39" s="9">
-        <v>10</v>
-      </c>
-      <c r="X39" s="8">
-        <v>0.0062</v>
-      </c>
       <c r="Y39" s="7">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="Z39" s="9">
         <v>1</v>
@@ -7765,37 +7798,37 @@
         <v>0.0006</v>
       </c>
       <c r="AB39" s="7">
-        <v>3.21</v>
+        <v>1.6</v>
       </c>
       <c r="AC39" s="7">
-        <v>3.21</v>
+        <v>3.19</v>
       </c>
       <c r="AD39" s="7">
-        <v>22.98</v>
+        <v>19.98</v>
       </c>
       <c r="AE39" s="7">
-        <v>22.98</v>
+        <v>39.96</v>
       </c>
       <c r="AF39" s="7">
-        <v>22.98</v>
+        <v>19.98</v>
       </c>
       <c r="AG39" s="6">
-        <v>7.16</v>
+        <v>12.53</v>
       </c>
       <c r="AH39" s="6">
-        <v>7.16</v>
+        <v>6.26</v>
       </c>
       <c r="AI39" s="9">
         <v>1</v>
       </c>
       <c r="AJ39" s="8">
-        <v>0.0006</v>
+        <v>0.0011</v>
       </c>
       <c r="AK39" s="8">
         <v>0.0006</v>
       </c>
       <c r="AL39" s="7">
-        <v>3.21</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="40" spans="1:38" customHeight="1" ht="90">
@@ -7804,7 +7837,7 @@
         <v>76</v>
       </c>
       <c r="C40" s="7">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="D40" s="7">
         <v>0</v>
@@ -7813,7 +7846,7 @@
         <v>1.31</v>
       </c>
       <c r="F40" s="7">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
       <c r="G40" s="6">
         <v>0</v>
@@ -7822,13 +7855,13 @@
         <v>0</v>
       </c>
       <c r="I40" s="8">
-        <v>0.0059</v>
+        <v>0.006</v>
       </c>
       <c r="J40" s="8">
-        <v>0.0025</v>
+        <v>0.0051</v>
       </c>
       <c r="K40" s="8">
-        <v>0.0008</v>
+        <v>0.0013</v>
       </c>
       <c r="L40" s="7">
         <v>0</v>
@@ -7840,16 +7873,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="9">
-        <v>2357</v>
+        <v>2352</v>
       </c>
       <c r="P40" s="9">
         <v>14</v>
       </c>
       <c r="Q40" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R40" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S40" s="9">
         <v>0</v>
@@ -7864,25 +7897,25 @@
         <v>0.22</v>
       </c>
       <c r="W40" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X40" s="8">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="Y40" s="7">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="Z40" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA40" s="8">
-        <v>0.0004</v>
+        <v>0.0009</v>
       </c>
       <c r="AB40" s="7">
-        <v>1.55</v>
+        <v>1.03</v>
       </c>
       <c r="AC40" s="7">
-        <v>3.09</v>
+        <v>1.54</v>
       </c>
       <c r="AD40" s="7">
         <v>0</v>
@@ -7918,19 +7951,19 @@
         <v>77</v>
       </c>
       <c r="C41" s="7">
-        <v>3.09</v>
+        <v>3</v>
       </c>
       <c r="D41" s="7">
         <v>22.98</v>
       </c>
       <c r="E41" s="7">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="F41" s="7">
-        <v>0.77</v>
+        <v>0.2</v>
       </c>
       <c r="G41" s="6">
-        <v>7.44</v>
+        <v>7.66</v>
       </c>
       <c r="H41" s="8">
         <v>1</v>
@@ -7939,31 +7972,31 @@
         <v>0.0025</v>
       </c>
       <c r="J41" s="8">
-        <v>0.0025</v>
+        <v>0.0092</v>
       </c>
       <c r="K41" s="8">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="L41" s="7">
-        <v>3.09</v>
+        <v>3</v>
       </c>
       <c r="M41" s="6">
-        <v>7.44</v>
+        <v>7.66</v>
       </c>
       <c r="N41" s="8">
         <v>0</v>
       </c>
       <c r="O41" s="9">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="P41" s="9">
         <v>4</v>
       </c>
       <c r="Q41" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R41" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S41" s="9">
         <v>1</v>
@@ -7975,28 +8008,28 @@
         <v>0</v>
       </c>
       <c r="V41" s="7">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="W41" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="X41" s="8">
-        <v>0.0025</v>
+        <v>0.0092</v>
       </c>
       <c r="Y41" s="7">
-        <v>0.77</v>
+        <v>0.2</v>
       </c>
       <c r="Z41" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA41" s="8">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="AB41" s="7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC41" s="7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD41" s="7">
         <v>22.98</v>
@@ -8008,10 +8041,10 @@
         <v>22.98</v>
       </c>
       <c r="AG41" s="6">
-        <v>7.44</v>
+        <v>7.66</v>
       </c>
       <c r="AH41" s="6">
-        <v>7.44</v>
+        <v>7.66</v>
       </c>
       <c r="AI41" s="9">
         <v>1</v>
@@ -8023,7 +8056,7 @@
         <v>0.0006</v>
       </c>
       <c r="AL41" s="7">
-        <v>3.09</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:38" customHeight="1" ht="90">
@@ -8038,10 +8071,10 @@
         <v>22.98</v>
       </c>
       <c r="E42" s="7">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="F42" s="7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G42" s="6">
         <v>7.69</v>
@@ -8053,10 +8086,10 @@
         <v>0.0025</v>
       </c>
       <c r="J42" s="8">
-        <v>0.0186</v>
+        <v>0.0361</v>
       </c>
       <c r="K42" s="8">
-        <v>0.0019</v>
+        <v>0.0044</v>
       </c>
       <c r="L42" s="7">
         <v>2.99</v>
@@ -8068,16 +8101,16 @@
         <v>0</v>
       </c>
       <c r="O42" s="9">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="P42" s="9">
         <v>4</v>
       </c>
       <c r="Q42" s="9">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="R42" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S42" s="9">
         <v>1</v>
@@ -8092,25 +8125,25 @@
         <v>0.75</v>
       </c>
       <c r="W42" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="X42" s="8">
-        <v>0.0155</v>
+        <v>0.0255</v>
       </c>
       <c r="Y42" s="7">
-        <v>0.12</v>
+        <v>0.07</v>
       </c>
       <c r="Z42" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA42" s="8">
-        <v>0.0019</v>
+        <v>0.0044</v>
       </c>
       <c r="AB42" s="7">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AC42" s="7">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AD42" s="7">
         <v>22.98</v>
@@ -8146,19 +8179,19 @@
         <v>79</v>
       </c>
       <c r="C43" s="7">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="D43" s="7">
         <v>28.97</v>
       </c>
       <c r="E43" s="7">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="F43" s="7">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="G43" s="6">
-        <v>9.79</v>
+        <v>9.89</v>
       </c>
       <c r="H43" s="8">
         <v>1</v>
@@ -8167,28 +8200,28 @@
         <v>0.0032</v>
       </c>
       <c r="J43" s="8">
-        <v>0.0057</v>
+        <v>0.0122</v>
       </c>
       <c r="K43" s="8">
         <v>0.0019</v>
       </c>
       <c r="L43" s="7">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M43" s="6">
-        <v>7.76</v>
+        <v>7.84</v>
       </c>
       <c r="N43" s="8">
         <v>0</v>
       </c>
       <c r="O43" s="9">
-        <v>1566</v>
+        <v>1557</v>
       </c>
       <c r="P43" s="9">
         <v>5</v>
       </c>
       <c r="Q43" s="9">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="R43" s="9">
         <v>3</v>
@@ -8206,13 +8239,13 @@
         <v>0.59</v>
       </c>
       <c r="W43" s="9">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="X43" s="8">
-        <v>0.0045</v>
+        <v>0.0109</v>
       </c>
       <c r="Y43" s="7">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="Z43" s="9">
         <v>2</v>
@@ -8221,10 +8254,10 @@
         <v>0.0013</v>
       </c>
       <c r="AB43" s="7">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AC43" s="7">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AD43" s="7">
         <v>22.98</v>
@@ -8236,10 +8269,10 @@
         <v>22.98</v>
       </c>
       <c r="AG43" s="6">
-        <v>9.79</v>
+        <v>9.89</v>
       </c>
       <c r="AH43" s="6">
-        <v>7.76</v>
+        <v>7.84</v>
       </c>
       <c r="AI43" s="9">
         <v>1</v>
@@ -8251,7 +8284,7 @@
         <v>0.0006</v>
       </c>
       <c r="AL43" s="7">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="44" spans="1:38" customHeight="1" ht="90">
@@ -8260,7 +8293,7 @@
         <v>80</v>
       </c>
       <c r="C44" s="7">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="D44" s="7">
         <v>62.94</v>
@@ -8269,10 +8302,10 @@
         <v>1.82</v>
       </c>
       <c r="F44" s="7">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="G44" s="6">
-        <v>21.85</v>
+        <v>21.93</v>
       </c>
       <c r="H44" s="8">
         <v>0.6667</v>
@@ -8281,31 +8314,31 @@
         <v>0.0038</v>
       </c>
       <c r="J44" s="8">
-        <v>0.0051</v>
+        <v>0.0089</v>
       </c>
       <c r="K44" s="8">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="L44" s="7">
         <v>0.96</v>
       </c>
       <c r="M44" s="6">
-        <v>21.85</v>
+        <v>21.93</v>
       </c>
       <c r="N44" s="8">
         <v>0</v>
       </c>
       <c r="O44" s="9">
-        <v>1583</v>
+        <v>1573</v>
       </c>
       <c r="P44" s="9">
         <v>6</v>
       </c>
       <c r="Q44" s="9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R44" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S44" s="9">
         <v>3</v>
@@ -8314,31 +8347,31 @@
         <v>3</v>
       </c>
       <c r="U44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" s="7">
         <v>0.48</v>
       </c>
       <c r="W44" s="9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X44" s="8">
-        <v>0.0038</v>
+        <v>0.007</v>
       </c>
       <c r="Y44" s="7">
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
       <c r="Z44" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA44" s="8">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="AB44" s="7">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AC44" s="7">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AD44" s="7">
         <v>62.94</v>
@@ -8350,10 +8383,10 @@
         <v>39.96</v>
       </c>
       <c r="AG44" s="6">
-        <v>13.88</v>
+        <v>13.92</v>
       </c>
       <c r="AH44" s="6">
-        <v>13.88</v>
+        <v>13.92</v>
       </c>
       <c r="AI44" s="9">
         <v>3</v>
@@ -8374,52 +8407,52 @@
         <v>81</v>
       </c>
       <c r="C45" s="7">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="D45" s="7">
         <v>33.96</v>
       </c>
       <c r="E45" s="7">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="F45" s="7">
-        <v>0.32</v>
+        <v>0.14</v>
       </c>
       <c r="G45" s="6">
-        <v>11.87</v>
+        <v>11.96</v>
       </c>
       <c r="H45" s="8">
         <v>1</v>
       </c>
       <c r="I45" s="8">
-        <v>0.0065</v>
+        <v>0.0059</v>
       </c>
       <c r="J45" s="8">
-        <v>0.0059</v>
+        <v>0.0131</v>
       </c>
       <c r="K45" s="8">
-        <v>0.0007</v>
+        <v>0.002</v>
       </c>
       <c r="L45" s="7">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M45" s="6">
-        <v>11.87</v>
+        <v>11.96</v>
       </c>
       <c r="N45" s="8">
         <v>0</v>
       </c>
       <c r="O45" s="9">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="P45" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q45" s="9">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="R45" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S45" s="9">
         <v>2</v>
@@ -8431,28 +8464,28 @@
         <v>0</v>
       </c>
       <c r="V45" s="7">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="W45" s="9">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="X45" s="8">
-        <v>0.0046</v>
+        <v>0.0118</v>
       </c>
       <c r="Y45" s="7">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
       <c r="Z45" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA45" s="8">
-        <v>0.0007</v>
+        <v>0.002</v>
       </c>
       <c r="AB45" s="7">
-        <v>2.86</v>
+        <v>0.95</v>
       </c>
       <c r="AC45" s="7">
-        <v>2.86</v>
+        <v>0.95</v>
       </c>
       <c r="AD45" s="7">
         <v>33.96</v>
@@ -8464,10 +8497,10 @@
         <v>33.96</v>
       </c>
       <c r="AG45" s="6">
-        <v>11.87</v>
+        <v>11.96</v>
       </c>
       <c r="AH45" s="6">
-        <v>11.87</v>
+        <v>11.96</v>
       </c>
       <c r="AI45" s="9">
         <v>2</v>
@@ -8479,7 +8512,7 @@
         <v>0.0013</v>
       </c>
       <c r="AL45" s="7">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="46" spans="1:38" customHeight="1" ht="90">
@@ -8488,7 +8521,7 @@
         <v>82</v>
       </c>
       <c r="C46" s="7">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="D46" s="7">
         <v>15.98</v>
@@ -8497,25 +8530,25 @@
         <v>1.85</v>
       </c>
       <c r="F46" s="7">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="G46" s="6">
-        <v>5.71</v>
+        <v>5.75</v>
       </c>
       <c r="H46" s="8">
         <v>1</v>
       </c>
       <c r="I46" s="8">
-        <v>0.0046</v>
+        <v>0.0047</v>
       </c>
       <c r="J46" s="8">
-        <v>0.0013</v>
+        <v>0.0047</v>
       </c>
       <c r="K46" s="8">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L46" s="7">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="M46" s="6">
         <v>0</v>
@@ -8524,16 +8557,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="9">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="P46" s="9">
         <v>7</v>
       </c>
       <c r="Q46" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R46" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S46" s="9">
         <v>1</v>
@@ -8548,25 +8581,25 @@
         <v>0.4</v>
       </c>
       <c r="W46" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X46" s="8">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="Y46" s="7">
-        <v>0</v>
+        <v>0.56</v>
       </c>
       <c r="Z46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA46" s="8">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="AB46" s="7">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="AC46" s="7">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AD46" s="7">
         <v>0</v>
@@ -8578,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="AG46" s="6">
-        <v>5.71</v>
+        <v>5.75</v>
       </c>
       <c r="AH46" s="6">
         <v>0</v>
@@ -8608,10 +8641,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="7">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="F47" s="7">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G47" s="6">
         <v>0</v>
@@ -8620,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="I47" s="8">
-        <v>0.0107</v>
+        <v>0.0222</v>
       </c>
       <c r="J47" s="8">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="K47" s="8">
         <v>0</v>
@@ -8638,13 +8671,13 @@
         <v>0</v>
       </c>
       <c r="O47" s="9">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="P47" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="9">
         <v>0</v>
@@ -8659,16 +8692,16 @@
         <v>0</v>
       </c>
       <c r="V47" s="7">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="W47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" s="8">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="Y47" s="7">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Z47" s="9">
         <v>0</v>
@@ -8722,10 +8755,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="7">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="F48" s="7">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="G48" s="6">
         <v>0</v>
@@ -8734,13 +8767,13 @@
         <v>0</v>
       </c>
       <c r="I48" s="8">
-        <v>0.022</v>
+        <v>0.0107</v>
       </c>
       <c r="J48" s="8">
-        <v>0</v>
+        <v>0.0107</v>
       </c>
       <c r="K48" s="8">
-        <v>0</v>
+        <v>0.0053</v>
       </c>
       <c r="L48" s="7">
         <v>0</v>
@@ -8752,16 +8785,16 @@
         <v>0</v>
       </c>
       <c r="O48" s="9">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P48" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q48" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="9">
         <v>0</v>
@@ -8773,28 +8806,28 @@
         <v>0</v>
       </c>
       <c r="V48" s="7">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="W48" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X48" s="8">
-        <v>0</v>
+        <v>0.0107</v>
       </c>
       <c r="Y48" s="7">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="Z48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48" s="8">
-        <v>0</v>
+        <v>0.0053</v>
       </c>
       <c r="AB48" s="7">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AC48" s="7">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AD48" s="7">
         <v>0</v>
@@ -8836,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="7">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="F49" s="7">
         <v>0.08</v>
@@ -8848,10 +8881,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="8">
-        <v>0.0157</v>
+        <v>0.0156</v>
       </c>
       <c r="J49" s="8">
-        <v>0.0209</v>
+        <v>0.0208</v>
       </c>
       <c r="K49" s="8">
         <v>0</v>
@@ -8866,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P49" s="9">
         <v>3</v>
@@ -8890,13 +8923,13 @@
         <v>0.11</v>
       </c>
       <c r="W49" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X49" s="8">
-        <v>0.0157</v>
+        <v>0.0208</v>
       </c>
       <c r="Y49" s="7">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="Z49" s="9">
         <v>0</v>
@@ -8947,109 +8980,109 @@
         <v>0.34</v>
       </c>
       <c r="D50" s="7">
-        <v>0</v>
+        <v>15.98</v>
       </c>
       <c r="E50" s="7">
-        <v>1.77</v>
+        <v>2.09</v>
       </c>
       <c r="F50" s="7">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="G50" s="6">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H50" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="8">
-        <v>0.0156</v>
+        <v>0.0123</v>
       </c>
       <c r="J50" s="8">
-        <v>0.0156</v>
+        <v>0.0675</v>
       </c>
       <c r="K50" s="8">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
       <c r="L50" s="7">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="M50" s="6">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N50" s="8">
         <v>0</v>
       </c>
       <c r="O50" s="9">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="P50" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R50" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="9">
         <v>0</v>
       </c>
       <c r="V50" s="7">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="W50" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X50" s="8">
-        <v>0.0156</v>
+        <v>0.0491</v>
       </c>
       <c r="Y50" s="7">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="Z50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA50" s="8">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="AB50" s="7">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AC50" s="7">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AD50" s="7">
-        <v>0</v>
+        <v>15.98</v>
       </c>
       <c r="AE50" s="7">
-        <v>0</v>
+        <v>15.98</v>
       </c>
       <c r="AF50" s="7">
-        <v>0</v>
+        <v>15.98</v>
       </c>
       <c r="AG50" s="6">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AH50" s="6">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AI50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ50" s="8">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="AK50" s="8">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="AL50" s="7">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="90">
@@ -9061,109 +9094,109 @@
         <v>0.34</v>
       </c>
       <c r="D51" s="7">
-        <v>15.98</v>
+        <v>0</v>
       </c>
       <c r="E51" s="7">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="F51" s="7">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="G51" s="6">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H51" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="8">
-        <v>0.0121</v>
+        <v>0.0158</v>
       </c>
       <c r="J51" s="8">
-        <v>0.0424</v>
+        <v>0.0263</v>
       </c>
       <c r="K51" s="8">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="L51" s="7">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="M51" s="6">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N51" s="8">
         <v>0</v>
       </c>
       <c r="O51" s="9">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="P51" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q51" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" s="9">
         <v>0</v>
       </c>
       <c r="V51" s="7">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="W51" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X51" s="8">
-        <v>0.0303</v>
+        <v>0.0211</v>
       </c>
       <c r="Y51" s="7">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="Z51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="8">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="AB51" s="7">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="7">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="7">
-        <v>15.98</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="7">
-        <v>15.98</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="7">
-        <v>15.98</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="6">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="6">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="8">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="AK51" s="8">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="7">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:38" customHeight="1" ht="90">
@@ -9172,49 +9205,49 @@
         <v>88</v>
       </c>
       <c r="C52" s="7">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="D52" s="7">
         <v>22.98</v>
       </c>
       <c r="E52" s="7">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="F52" s="7">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="G52" s="6">
-        <v>71.81</v>
+        <v>74.13</v>
       </c>
       <c r="H52" s="8">
         <v>1</v>
       </c>
       <c r="I52" s="8">
-        <v>0.0201</v>
+        <v>0.0203</v>
       </c>
       <c r="J52" s="8">
-        <v>0.0151</v>
+        <v>0.0254</v>
       </c>
       <c r="K52" s="8">
         <v>0</v>
       </c>
       <c r="L52" s="7">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="M52" s="6">
-        <v>71.81</v>
+        <v>74.13</v>
       </c>
       <c r="N52" s="8">
         <v>0</v>
       </c>
       <c r="O52" s="9">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P52" s="9">
         <v>4</v>
       </c>
       <c r="Q52" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R52" s="9">
         <v>0</v>
@@ -9232,13 +9265,13 @@
         <v>0.08</v>
       </c>
       <c r="W52" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X52" s="8">
-        <v>0.005</v>
+        <v>0.0102</v>
       </c>
       <c r="Y52" s="7">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="Z52" s="9">
         <v>0</v>
@@ -9262,22 +9295,22 @@
         <v>22.98</v>
       </c>
       <c r="AG52" s="6">
-        <v>71.81</v>
+        <v>74.13</v>
       </c>
       <c r="AH52" s="6">
-        <v>71.81</v>
+        <v>74.13</v>
       </c>
       <c r="AI52" s="9">
         <v>1</v>
       </c>
       <c r="AJ52" s="8">
-        <v>0.005</v>
+        <v>0.0051</v>
       </c>
       <c r="AK52" s="8">
-        <v>0.005</v>
+        <v>0.0051</v>
       </c>
       <c r="AL52" s="7">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="90">
@@ -9286,16 +9319,16 @@
         <v>89</v>
       </c>
       <c r="C53" s="7">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="D53" s="7">
         <v>0</v>
       </c>
       <c r="E53" s="7">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="F53" s="7">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="G53" s="6">
         <v>0</v>
@@ -9304,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="8">
-        <v>0.0263</v>
+        <v>0.0269</v>
       </c>
       <c r="J53" s="8">
-        <v>0</v>
+        <v>0.0054</v>
       </c>
       <c r="K53" s="8">
         <v>0</v>
@@ -9322,13 +9355,13 @@
         <v>0</v>
       </c>
       <c r="O53" s="9">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P53" s="9">
         <v>5</v>
       </c>
       <c r="Q53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="9">
         <v>0</v>
@@ -9442,10 +9475,10 @@
         <v>0</v>
       </c>
       <c r="Q54" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R54" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="9">
         <v>0</v>
@@ -9664,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="9">
         <v>0</v>
@@ -10120,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="9">
         <v>0</v>
@@ -10234,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="9">
         <v>0</v>
@@ -10348,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="9">
         <v>0</v>
@@ -10576,31 +10609,31 @@
         <v>0</v>
       </c>
       <c r="O64" s="9">
+        <v>0</v>
+      </c>
+      <c r="P64" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="9">
+        <v>2</v>
+      </c>
+      <c r="R64" s="9">
+        <v>0</v>
+      </c>
+      <c r="S64" s="9">
+        <v>0</v>
+      </c>
+      <c r="T64" s="9">
+        <v>0</v>
+      </c>
+      <c r="U64" s="9">
+        <v>0</v>
+      </c>
+      <c r="V64" s="7">
+        <v>0</v>
+      </c>
+      <c r="W64" s="9">
         <v>1</v>
-      </c>
-      <c r="P64" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="9">
-        <v>0</v>
-      </c>
-      <c r="R64" s="9">
-        <v>0</v>
-      </c>
-      <c r="S64" s="9">
-        <v>0</v>
-      </c>
-      <c r="T64" s="9">
-        <v>0</v>
-      </c>
-      <c r="U64" s="9">
-        <v>0</v>
-      </c>
-      <c r="V64" s="7">
-        <v>0</v>
-      </c>
-      <c r="W64" s="9">
-        <v>0</v>
       </c>
       <c r="X64" s="8">
         <v>0</v>
@@ -10804,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" s="9">
         <v>0</v>
@@ -10918,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" s="9">
         <v>0</v>
@@ -11032,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" s="9">
         <v>0</v>
@@ -11383,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="R71" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" s="9">
         <v>0</v>
@@ -11716,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" s="9">
         <v>0</v>
@@ -11836,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="Q75" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R75" s="9">
         <v>0</v>
@@ -12058,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" s="9">
         <v>0</v>
@@ -12292,7 +12325,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" s="9">
         <v>0</v>
@@ -12934,112 +12967,226 @@
         <v>121</v>
       </c>
       <c r="C85" s="7">
-        <v>299.99</v>
+        <v>0</v>
       </c>
       <c r="D85" s="7">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+      <c r="G85" s="6">
+        <v>0</v>
+      </c>
+      <c r="H85" s="8">
+        <v>0</v>
+      </c>
+      <c r="I85" s="8">
+        <v>0</v>
+      </c>
+      <c r="J85" s="8">
+        <v>0</v>
+      </c>
+      <c r="K85" s="8">
+        <v>0</v>
+      </c>
+      <c r="L85" s="7">
+        <v>0</v>
+      </c>
+      <c r="M85" s="6">
+        <v>0</v>
+      </c>
+      <c r="N85" s="8">
+        <v>0</v>
+      </c>
+      <c r="O85" s="9">
+        <v>0</v>
+      </c>
+      <c r="P85" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="9">
+        <v>0</v>
+      </c>
+      <c r="R85" s="9">
+        <v>0</v>
+      </c>
+      <c r="S85" s="9">
+        <v>0</v>
+      </c>
+      <c r="T85" s="9">
+        <v>0</v>
+      </c>
+      <c r="U85" s="9">
+        <v>0</v>
+      </c>
+      <c r="V85" s="7">
+        <v>0</v>
+      </c>
+      <c r="W85" s="9">
+        <v>0</v>
+      </c>
+      <c r="X85" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK85" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" customHeight="1" ht="90">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="7">
+        <v>297.22</v>
+      </c>
+      <c r="D86" s="7">
         <v>729.22</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="7">
         <v>0.84</v>
       </c>
-      <c r="F85" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="G85" s="6">
-        <v>2.43</v>
-      </c>
-      <c r="H85" s="8">
+      <c r="F86" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="G86" s="6">
+        <v>2.45</v>
+      </c>
+      <c r="H86" s="8">
         <v>0.9048</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I86" s="8">
         <v>0.0025</v>
       </c>
-      <c r="J85" s="8">
-        <v>0.002</v>
-      </c>
-      <c r="K85" s="8">
+      <c r="J86" s="8">
+        <v>0.0044</v>
+      </c>
+      <c r="K86" s="8">
+        <v>0.0003</v>
+      </c>
+      <c r="L86" s="7">
+        <v>7.08</v>
+      </c>
+      <c r="M86" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="N86" s="8">
+        <v>0</v>
+      </c>
+      <c r="O86" s="9">
+        <v>354980</v>
+      </c>
+      <c r="P86" s="9">
+        <v>879</v>
+      </c>
+      <c r="Q86" s="9">
+        <v>1556</v>
+      </c>
+      <c r="R86" s="9">
+        <v>105</v>
+      </c>
+      <c r="S86" s="9">
+        <v>42</v>
+      </c>
+      <c r="T86" s="9">
+        <v>42</v>
+      </c>
+      <c r="U86" s="9">
+        <v>4</v>
+      </c>
+      <c r="V86" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="W86" s="9">
+        <v>1156</v>
+      </c>
+      <c r="X86" s="8">
+        <v>0.0033</v>
+      </c>
+      <c r="Y86" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="Z86" s="9">
+        <v>71</v>
+      </c>
+      <c r="AA86" s="8">
+        <v>0.0002</v>
+      </c>
+      <c r="AB86" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="AC86" s="7">
+        <v>4.19</v>
+      </c>
+      <c r="AD86" s="7">
+        <v>501.48</v>
+      </c>
+      <c r="AE86" s="7">
+        <v>657.3</v>
+      </c>
+      <c r="AF86" s="7">
+        <v>461.52</v>
+      </c>
+      <c r="AG86" s="6">
+        <v>2.21</v>
+      </c>
+      <c r="AH86" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="AI86" s="9">
+        <v>28</v>
+      </c>
+      <c r="AJ86" s="8">
         <v>0.0001</v>
       </c>
-      <c r="L85" s="7">
-        <v>7.14</v>
-      </c>
-      <c r="M85" s="6">
-        <v>1.67</v>
-      </c>
-      <c r="N85" s="8">
-        <v>0</v>
-      </c>
-      <c r="O85" s="9">
-        <v>357918</v>
-      </c>
-      <c r="P85" s="9">
-        <v>893</v>
-      </c>
-      <c r="Q85" s="9">
-        <v>726</v>
-      </c>
-      <c r="R85" s="9">
-        <v>40</v>
-      </c>
-      <c r="S85" s="9">
-        <v>42</v>
-      </c>
-      <c r="T85" s="9">
-        <v>42</v>
-      </c>
-      <c r="U85" s="9">
-        <v>0</v>
-      </c>
-      <c r="V85" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="W85" s="9">
-        <v>515</v>
-      </c>
-      <c r="X85" s="8">
-        <v>0.0014</v>
-      </c>
-      <c r="Y85" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="Z85" s="9">
-        <v>24</v>
-      </c>
-      <c r="AA85" s="8">
+      <c r="AK86" s="8">
         <v>0.0001</v>
       </c>
-      <c r="AB85" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="AC85" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="AD85" s="7">
-        <v>501.48</v>
-      </c>
-      <c r="AE85" s="7">
-        <v>657.3</v>
-      </c>
-      <c r="AF85" s="7">
-        <v>461.52</v>
-      </c>
-      <c r="AG85" s="6">
-        <v>2.19</v>
-      </c>
-      <c r="AH85" s="6">
-        <v>1.54</v>
-      </c>
-      <c r="AI85" s="9">
-        <v>28</v>
-      </c>
-      <c r="AJ85" s="8">
-        <v>0.0001</v>
-      </c>
-      <c r="AK85" s="8">
-        <v>0.0001</v>
-      </c>
-      <c r="AL85" s="7">
-        <v>10.71</v>
+      <c r="AL86" s="7">
+        <v>10.62</v>
       </c>
     </row>
   </sheetData>
